--- a/test/fixture/snapshot/cli/sort-format/collection-high-value/commander/commander-mythic.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/collection-high-value/commander/commander-mythic.xlsx
@@ -501,7 +501,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -533,26 +533,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF777777"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -571,22 +556,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7792,46 +7771,46 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="9">
         <v>6</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="9" t="s">
         <v>65</v>
       </c>
     </row>
